--- a/public/plugin/xls/sku.xlsx
+++ b/public/plugin/xls/sku.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV ABS\Aplikasi Pelayanan Umum Cmg I\Format Surat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps-desa-dukuh\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7627061C-A2BA-448E-B9DB-0D3C829587EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C19F2D4-FCFA-4474-845C-DA91677E1163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -75,26 +75,26 @@
     <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t>DESA CIMANGGU I</t>
-  </si>
-  <si>
-    <t>Jl. Gardu Seri Ciaruteun Rt.004 Rw.008 Desa Cimanggu Satu Kecamatan Cibungbulang 16630 Bogor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Ciaruteun Cimanggu Satu Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cimanggu, </t>
-  </si>
-  <si>
     <t xml:space="preserve">           Demikian Surat Keterangan Usaha ini  kami buat dan untuk dipergunakan sebagai mana mestinya.</t>
+  </si>
+  <si>
+    <t>DESA DUKUH</t>
+  </si>
+  <si>
+    <t>Jl Raya Galuga - Cijujung Km.2 Kec Cibungbulang Kab. Bogor Pos 16330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukuh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Dukuh Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +117,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
@@ -138,8 +131,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -180,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -194,8 +187,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -203,29 +196,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -303,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,26 +589,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="1.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="1.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.26953125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
@@ -629,7 +619,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -640,9 +630,9 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -651,11 +641,11 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -664,8 +654,8 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -678,7 +668,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
@@ -687,29 +677,38 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -720,9 +719,9 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -733,9 +732,9 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -746,9 +745,9 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -759,9 +758,9 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -772,9 +771,9 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -785,34 +784,34 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    <row r="20" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="21" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="23" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -823,103 +822,90 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="26" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="15" t="s">
+    <row r="25" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="2:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="7:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="7:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="G33:I33"/>
     <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="A7:I7"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
